--- a/tests_cases/TC-Print3-11.xlsx
+++ b/tests_cases/TC-Print3-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EF3ED-55F7-4F2A-88C5-3E7CD6E16E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A13A3-193A-47A5-B13D-AE77A1F122DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71B882C2-19E6-4202-9FDD-AA443A80DBEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -80,15 +80,9 @@
     <t>El usuario tiene que estar logeado en la pagina</t>
   </si>
   <si>
-    <t>Producto que desea comprar: Iphone15</t>
-  </si>
-  <si>
     <t>No hay validacion de Stock</t>
   </si>
   <si>
-    <t>Segundo producto: cable de Iphone15</t>
-  </si>
-  <si>
     <t>Se puede agregar un producto a la vez</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Dentro de la pagina, clickear en el buscador e ingresar "Iphone15"</t>
-  </si>
-  <si>
     <t>Se deberia mostrar el producto</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>Deberia volver a la pagina de compra para seguir comprando</t>
   </si>
   <si>
-    <t>En el buscador ingregar "Cable de Iphone 15"</t>
-  </si>
-  <si>
     <t>Dentro del carrito, Check out</t>
   </si>
   <si>
@@ -159,13 +147,52 @@
   </si>
   <si>
     <t>TC-Print 3-11</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>didn't turn out as we expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-007: El buscador de la pagina no funciona</t>
+  </si>
+  <si>
+    <t>Producto que desea comprar:"Fisrt"</t>
+  </si>
+  <si>
+    <t>Segundo producto:  "Second"</t>
+  </si>
+  <si>
+    <t>Dentro de la pagina, clickear en el buscador e ingresar "First"</t>
+  </si>
+  <si>
+    <t>En el buscador ingregar "Second"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +258,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +300,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -462,13 +528,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -546,6 +712,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,62 +778,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4C1305AA-3ACF-4700-9963-AC929BFEF299}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{257839A3-DD3A-42BC-986C-BB04A33F9AEC}"/>
@@ -928,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C0858-B9A9-4B1C-82D7-3B3233519160}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,15 +1154,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1008,209 +1218,289 @@
       <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>14</v>
+      <c r="E8" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="40"/>
+      <c r="B9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="32"/>
       <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>16</v>
+      <c r="E9" s="62" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="38"/>
+      <c r="B10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="19">
         <v>3</v>
       </c>
       <c r="E10" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="A14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="B18" s="41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>1</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>2</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>3</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>5</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>6</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>7</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>8</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+    </row>
+    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
+  <mergeCells count="33">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B23:C23"/>
@@ -1219,10 +1509,18 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-11.xlsx
+++ b/tests_cases/TC-Print3-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A13A3-193A-47A5-B13D-AE77A1F122DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0331079-6AD1-4836-9EB8-7F916AB8CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71B882C2-19E6-4202-9FDD-AA443A80DBEC}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>HU-5</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>En el buscador ingregar "Second"</t>
+  </si>
+  <si>
+    <t>PE-53</t>
   </si>
 </sst>
 </file>
@@ -697,12 +697,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,6 +706,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,71 +814,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,15 +1154,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1218,284 +1218,289 @@
       <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>47</v>
+      <c r="E9" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="19">
         <v>3</v>
       </c>
       <c r="E10" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="24" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="B18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>1</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>1</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>2</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>3</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>4</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>5</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>2</v>
-      </c>
-      <c r="B20" s="45" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>3</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>4</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45" t="s">
+      <c r="E24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>7</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
-        <v>5</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
-        <v>6</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
-        <v>7</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="45" t="s">
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>8</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="45" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56" t="s">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57" t="s">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-    </row>
-    <row r="35" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
+  <mergeCells count="34">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
@@ -1509,18 +1514,14 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
